--- a/B_low.xlsx
+++ b/B_low.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,25 +467,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Journey Time Benefit</t>
+          <t>Journey Time Work Benefit</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Journey Time Non Work Benefit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Emission Benefit</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>All Benefit</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Maintenance Cost</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Construction Cost</t>
         </is>
@@ -496,33 +501,36 @@
         <v>2031</v>
       </c>
       <c r="B2" t="n">
-        <v>-64168.48326308961</v>
+        <v>-40377.2446784542</v>
       </c>
       <c r="C2" t="n">
-        <v>-26263.75121961323</v>
+        <v>-16526.14890117498</v>
       </c>
       <c r="D2" t="n">
-        <v>-1146557.616040488</v>
+        <v>-1203885.496842512</v>
       </c>
       <c r="E2" t="n">
-        <v>707586.3813356445</v>
+        <v>-707586.3813356445</v>
       </c>
       <c r="F2" t="n">
-        <v>7643.717440269921</v>
+        <v>-8025.903312283416</v>
       </c>
       <c r="G2" t="n">
-        <v>6866521.681489917</v>
+        <v>228995.8283569725</v>
       </c>
       <c r="H2" t="n">
-        <v>213770.2439794708</v>
+        <v>6502596.032370947</v>
       </c>
       <c r="I2" t="n">
-        <v>6543244.738841571</v>
+        <v>-213770.2439794708</v>
       </c>
       <c r="J2" t="n">
-        <v>15893</v>
+        <v>4541420.44167838</v>
       </c>
       <c r="K2" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L2" t="n">
         <v>124517681.75</v>
       </c>
     </row>
@@ -531,1947 +539,2124 @@
         <v>2032</v>
       </c>
       <c r="B3" t="n">
-        <v>-64537.77497494422</v>
+        <v>-40609.61703711109</v>
       </c>
       <c r="C3" t="n">
-        <v>-26526.38873180932</v>
+        <v>-16691.4103901867</v>
       </c>
       <c r="D3" t="n">
-        <v>-1153156.092476834</v>
+        <v>-1210813.897100675</v>
       </c>
       <c r="E3" t="n">
-        <v>714662.2451490011</v>
+        <v>-714662.2451490011</v>
       </c>
       <c r="F3" t="n">
-        <v>7687.707283178895</v>
+        <v>-8072.092647337837</v>
       </c>
       <c r="G3" t="n">
-        <v>7039214.701779386</v>
+        <v>234755.0734401506</v>
       </c>
       <c r="H3" t="n">
-        <v>180936.6787563046</v>
+        <v>6666136.322585078</v>
       </c>
       <c r="I3" t="n">
-        <v>6682905.662217925</v>
+        <v>-180936.6787563046</v>
       </c>
       <c r="J3" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>4729105.454944612</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2033</v>
       </c>
       <c r="B4" t="n">
-        <v>-65462.52050512513</v>
+        <v>-41191.50201613316</v>
       </c>
       <c r="C4" t="n">
-        <v>-26791.65261912749</v>
+        <v>-16858.32449408862</v>
       </c>
       <c r="D4" t="n">
-        <v>-1169679.375817991</v>
+        <v>-1228163.34460889</v>
       </c>
       <c r="E4" t="n">
-        <v>721808.867600491</v>
+        <v>-721808.867600491</v>
       </c>
       <c r="F4" t="n">
-        <v>7797.862505453271</v>
+        <v>-8187.755630725936</v>
       </c>
       <c r="G4" t="n">
-        <v>7216250.951529136</v>
+        <v>240659.16353717</v>
       </c>
       <c r="H4" t="n">
-        <v>153250.2842508972</v>
+        <v>6833789.65109809</v>
       </c>
       <c r="I4" t="n">
-        <v>6821578.691932828</v>
+        <v>-153250.2842508972</v>
       </c>
       <c r="J4" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>4904988.736034034</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2034</v>
       </c>
       <c r="B5" t="n">
-        <v>-66746.15708970571</v>
+        <v>-41999.21486546646</v>
       </c>
       <c r="C5" t="n">
-        <v>-27059.56914531873</v>
+        <v>-17026.90773902948</v>
       </c>
       <c r="D5" t="n">
-        <v>-1192615.297433043</v>
+        <v>-1252246.062304695</v>
       </c>
       <c r="E5" t="n">
-        <v>729026.9562764962</v>
+        <v>-729026.9562764962</v>
       </c>
       <c r="F5" t="n">
-        <v>7950.768649553619</v>
+        <v>-8348.307082031302</v>
       </c>
       <c r="G5" t="n">
-        <v>7397739.662960097</v>
+        <v>246711.74150013</v>
       </c>
       <c r="H5" t="n">
-        <v>129855.0195042586</v>
+        <v>7005659.460823209</v>
       </c>
       <c r="I5" t="n">
-        <v>6962249.846423231</v>
+        <v>-129855.0195042586</v>
       </c>
       <c r="J5" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>5073868.734551362</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2035</v>
       </c>
       <c r="B6" t="n">
-        <v>-66293.74646386356</v>
+        <v>-41714.54093200497</v>
       </c>
       <c r="C6" t="n">
-        <v>-27330.16483677191</v>
+        <v>-17197.17681641977</v>
       </c>
       <c r="D6" t="n">
-        <v>-1184531.658514693</v>
+        <v>-1243758.241440429</v>
       </c>
       <c r="E6" t="n">
-        <v>736317.2258392608</v>
+        <v>-736317.2258392608</v>
       </c>
       <c r="F6" t="n">
-        <v>7896.87772343129</v>
+        <v>-8291.721609602859</v>
       </c>
       <c r="G6" t="n">
-        <v>7583792.815483531</v>
+        <v>252916.541798858</v>
       </c>
       <c r="H6" t="n">
-        <v>110060.7029375209</v>
+        <v>7181851.796262906</v>
       </c>
       <c r="I6" t="n">
-        <v>7144118.296721552</v>
+        <v>-110060.7029375209</v>
       </c>
       <c r="J6" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>5277428.728486526</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>2036</v>
       </c>
       <c r="B7" t="n">
-        <v>-66299.76030006752</v>
+        <v>-41718.32506595228</v>
       </c>
       <c r="C7" t="n">
-        <v>-27603.46648513964</v>
+        <v>-17369.14858458398</v>
       </c>
       <c r="D7" t="n">
-        <v>-1184639.113286112</v>
+        <v>-1243871.068950417</v>
       </c>
       <c r="E7" t="n">
-        <v>743680.3980976535</v>
+        <v>-743680.3980976535</v>
       </c>
       <c r="F7" t="n">
-        <v>7897.59408857408</v>
+        <v>-8292.473793002782</v>
       </c>
       <c r="G7" t="n">
-        <v>7774525.204792951</v>
+        <v>259277.3928250996</v>
       </c>
       <c r="H7" t="n">
-        <v>93293.09939418385</v>
+        <v>7362475.368938918</v>
       </c>
       <c r="I7" t="n">
-        <v>7325058.768124895</v>
+        <v>-93293.09939418385</v>
       </c>
       <c r="J7" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>5473528.247878225</v>
+      </c>
+      <c r="K7" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>2037</v>
       </c>
       <c r="B8" t="n">
-        <v>-64734.23268264706</v>
+        <v>-40733.23568180249</v>
       </c>
       <c r="C8" t="n">
-        <v>-27879.50114999103</v>
+        <v>-17542.84007042981</v>
       </c>
       <c r="D8" t="n">
-        <v>-1156666.383971071</v>
+        <v>-1214499.703169625</v>
       </c>
       <c r="E8" t="n">
-        <v>751117.2020786302</v>
+        <v>-751117.2020786302</v>
       </c>
       <c r="F8" t="n">
-        <v>7711.109226473808</v>
+        <v>-8096.664687797497</v>
       </c>
       <c r="G8" t="n">
-        <v>7970054.513693498</v>
+        <v>265798.2192546509</v>
       </c>
       <c r="H8" t="n">
-        <v>79075.44600517782</v>
+        <v>7547641.624467738</v>
       </c>
       <c r="I8" t="n">
-        <v>7543255.934747122</v>
+        <v>-79075.44600517782</v>
       </c>
       <c r="J8" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>5702374.752028926</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>2038</v>
       </c>
       <c r="B9" t="n">
-        <v>-65661.32472629545</v>
+        <v>-41316.59717614173</v>
       </c>
       <c r="C9" t="n">
-        <v>-28158.29616149094</v>
+        <v>-17718.26847113411</v>
       </c>
       <c r="D9" t="n">
-        <v>-1173231.59463777</v>
+        <v>-1231893.174369659</v>
       </c>
       <c r="E9" t="n">
-        <v>758628.3740994164</v>
+        <v>-758628.3740994164</v>
       </c>
       <c r="F9" t="n">
-        <v>7821.543964251802</v>
+        <v>-8212.621162464393</v>
       </c>
       <c r="G9" t="n">
-        <v>8170501.384712881</v>
+        <v>272483.0444689053</v>
       </c>
       <c r="H9" t="n">
-        <v>67024.92098096454</v>
+        <v>7737464.811323096</v>
       </c>
       <c r="I9" t="n">
-        <v>7721281.920303455</v>
+        <v>-67024.92098096454</v>
       </c>
       <c r="J9" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>5885153.899532221</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>2039</v>
       </c>
       <c r="B10" t="n">
-        <v>-65303.08402217733</v>
+        <v>-41091.1785309066</v>
       </c>
       <c r="C10" t="n">
-        <v>-28439.87912310589</v>
+        <v>-17895.45115584548</v>
       </c>
       <c r="D10" t="n">
-        <v>-1166830.576773621</v>
+        <v>-1225172.105612302</v>
       </c>
       <c r="E10" t="n">
-        <v>766214.6578404108</v>
+        <v>-766214.6578404108</v>
       </c>
       <c r="F10" t="n">
-        <v>7778.870511824141</v>
+        <v>-8167.814037415347</v>
       </c>
       <c r="G10" t="n">
-        <v>8375989.494538407</v>
+        <v>279335.9930372981</v>
       </c>
       <c r="H10" t="n">
-        <v>56812.89948929075</v>
+        <v>7932062.051327871</v>
       </c>
       <c r="I10" t="n">
-        <v>7930664.641437381</v>
+        <v>-56812.89948929075</v>
       </c>
       <c r="J10" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>6096043.937698998</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>2040</v>
       </c>
       <c r="B11" t="n">
-        <v>-67206.51901858942</v>
+        <v>-42288.89206053076</v>
       </c>
       <c r="C11" t="n">
-        <v>-28724.27791433694</v>
+        <v>-18074.40566740393</v>
       </c>
       <c r="D11" t="n">
-        <v>-1200841.009634041</v>
+        <v>-1260883.060115743</v>
       </c>
       <c r="E11" t="n">
-        <v>773876.8044188146</v>
+        <v>-773876.8044188146</v>
       </c>
       <c r="F11" t="n">
-        <v>8005.606730893608</v>
+        <v>-8405.887067438289</v>
       </c>
       <c r="G11" t="n">
-        <v>8586645.630326051</v>
+        <v>286361.2932621862</v>
       </c>
       <c r="H11" t="n">
-        <v>48153.28925822278</v>
+        <v>8131553.41191877</v>
       </c>
       <c r="I11" t="n">
-        <v>8103898.310705228</v>
+        <v>-48153.28925822278</v>
       </c>
       <c r="J11" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>6266232.366592802</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>2041</v>
       </c>
       <c r="B12" t="n">
-        <v>-66388.75418035169</v>
+        <v>-41774.3233924888</v>
       </c>
       <c r="C12" t="n">
-        <v>-29011.52069348028</v>
+        <v>-18255.14972407795</v>
       </c>
       <c r="D12" t="n">
-        <v>-1186229.24922251</v>
+        <v>-1245540.711683636</v>
       </c>
       <c r="E12" t="n">
-        <v>781615.5724630028</v>
+        <v>-781615.5724630028</v>
       </c>
       <c r="F12" t="n">
-        <v>7908.194994816738</v>
+        <v>-8303.604744557575</v>
       </c>
       <c r="G12" t="n">
-        <v>8802599.767928755</v>
+        <v>293563.2797877301</v>
       </c>
       <c r="H12" t="n">
-        <v>46728.2254125404</v>
+        <v>8336061.980228518</v>
       </c>
       <c r="I12" t="n">
-        <v>8341405.846713139</v>
+        <v>-46728.2254125404</v>
       </c>
       <c r="J12" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>6487407.672595945</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>2042</v>
       </c>
       <c r="B13" t="n">
-        <v>-66592.98686604746</v>
+        <v>-41902.83434837138</v>
       </c>
       <c r="C13" t="n">
-        <v>-29301.63590041508</v>
+        <v>-18437.70122131873</v>
       </c>
       <c r="D13" t="n">
-        <v>-1189878.463436735</v>
+        <v>-1249372.386608572</v>
       </c>
       <c r="E13" t="n">
-        <v>789431.7281876327</v>
+        <v>-789431.7281876327</v>
       </c>
       <c r="F13" t="n">
-        <v>7932.523089578235</v>
+        <v>-8329.149244057147</v>
       </c>
       <c r="G13" t="n">
-        <v>9023985.152092157</v>
+        <v>300946.3962743916</v>
       </c>
       <c r="H13" t="n">
-        <v>45167.48837294143</v>
+        <v>8545713.939031273</v>
       </c>
       <c r="I13" t="n">
-        <v>8564878.759359954</v>
+        <v>-45167.48837294143</v>
       </c>
       <c r="J13" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>6694019.047322772</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>2043</v>
       </c>
       <c r="B14" t="n">
-        <v>-66669.08116097044</v>
+        <v>-41950.71576629649</v>
       </c>
       <c r="C14" t="n">
-        <v>-29594.65225941923</v>
+        <v>-18622.07823353191</v>
       </c>
       <c r="D14" t="n">
-        <v>-1191238.110555453</v>
+        <v>-1250800.016083226</v>
       </c>
       <c r="E14" t="n">
-        <v>797326.0454695091</v>
+        <v>-797326.0454695091</v>
       </c>
       <c r="F14" t="n">
-        <v>7941.587403703022</v>
+        <v>-8338.666773888173</v>
       </c>
       <c r="G14" t="n">
-        <v>9250938.378667273</v>
+        <v>308515.1981406925</v>
       </c>
       <c r="H14" t="n">
-        <v>28945.9815310096</v>
+        <v>8760638.644597908</v>
       </c>
       <c r="I14" t="n">
-        <v>8781766.974288246</v>
+        <v>-28945.9815310096</v>
       </c>
       <c r="J14" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>6923170.33888114</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>2044</v>
       </c>
       <c r="B15" t="n">
-        <v>-67600.23280234922</v>
+        <v>-42536.63171357775</v>
       </c>
       <c r="C15" t="n">
-        <v>-29890.59878201343</v>
+        <v>-18808.29901586723</v>
       </c>
       <c r="D15" t="n">
-        <v>-1207875.857808013</v>
+        <v>-1268269.650698414</v>
       </c>
       <c r="E15" t="n">
-        <v>805299.3059242043</v>
+        <v>-805299.3059242043</v>
       </c>
       <c r="F15" t="n">
-        <v>8052.505718720089</v>
+        <v>-8455.13100465609</v>
       </c>
       <c r="G15" t="n">
-        <v>9483599.47889076</v>
+        <v>316274.3553739307</v>
       </c>
       <c r="H15" t="n">
-        <v>27403.83418869748</v>
+        <v>8980968.706509542</v>
       </c>
       <c r="I15" t="n">
-        <v>9002883.423892567</v>
+        <v>-27403.83418869748</v>
       </c>
       <c r="J15" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>7126470.209338056</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>2045</v>
       </c>
       <c r="B16" t="n">
-        <v>-66374.10270544932</v>
+        <v>-41765.1041284989</v>
       </c>
       <c r="C16" t="n">
-        <v>-30189.50476983361</v>
+        <v>-18996.38200602593</v>
       </c>
       <c r="D16" t="n">
-        <v>-1185967.457774726</v>
+        <v>-1245265.830663463</v>
       </c>
       <c r="E16" t="n">
-        <v>813352.2989834462</v>
+        <v>-813352.2989834462</v>
       </c>
       <c r="F16" t="n">
-        <v>7906.449718498176</v>
+        <v>-8301.772204423085</v>
       </c>
       <c r="G16" t="n">
-        <v>9722112.005784862</v>
+        <v>324228.6554115852</v>
       </c>
       <c r="H16" t="n">
-        <v>25953.84280525604</v>
+        <v>9206840.069478258</v>
       </c>
       <c r="I16" t="n">
-        <v>9270980.632605055</v>
+        <v>-25953.84280525604</v>
       </c>
       <c r="J16" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>7377433.494098731</v>
+      </c>
+      <c r="K16" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>2046</v>
       </c>
       <c r="B17" t="n">
-        <v>-67876.86764665386</v>
+        <v>-42710.70085511065</v>
       </c>
       <c r="C17" t="n">
-        <v>-30491.39981753189</v>
+        <v>-19186.34582608616</v>
       </c>
       <c r="D17" t="n">
-        <v>-1212818.748327948</v>
+        <v>-1273459.685744346</v>
       </c>
       <c r="E17" t="n">
-        <v>821485.8219732809</v>
+        <v>-821485.8219732809</v>
       </c>
       <c r="F17" t="n">
-        <v>8085.45832218632</v>
+        <v>-8489.731238295639</v>
       </c>
       <c r="G17" t="n">
-        <v>9966623.122730341</v>
+        <v>332383.0060951866</v>
       </c>
       <c r="H17" t="n">
-        <v>25861.56546433696</v>
+        <v>9438392.097225631</v>
       </c>
       <c r="I17" t="n">
-        <v>9494698.036053639</v>
+        <v>-25861.56546433696</v>
       </c>
       <c r="J17" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>7579581.25221936</v>
+      </c>
+      <c r="K17" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>2047</v>
       </c>
       <c r="B18" t="n">
-        <v>-67065.69746303339</v>
+        <v>-42200.28179400205</v>
       </c>
       <c r="C18" t="n">
-        <v>-30796.31381570725</v>
+        <v>-19378.20928434706</v>
       </c>
       <c r="D18" t="n">
-        <v>-1198324.820707408</v>
+        <v>-1258241.061742778</v>
       </c>
       <c r="E18" t="n">
-        <v>829700.6801930137</v>
+        <v>-829700.6801930137</v>
       </c>
       <c r="F18" t="n">
-        <v>7988.832138049385</v>
+        <v>-8388.273744951852</v>
       </c>
       <c r="G18" t="n">
-        <v>10217283.69426701</v>
+        <v>340742.4386984805</v>
       </c>
       <c r="H18" t="n">
-        <v>18214.35416114355</v>
+        <v>9675767.658470865</v>
       </c>
       <c r="I18" t="n">
-        <v>9761023.064496972</v>
+        <v>-18214.35416114355</v>
       </c>
       <c r="J18" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>7840387.236249111</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>2048</v>
       </c>
       <c r="B19" t="n">
-        <v>-65660.66492328497</v>
+        <v>-41316.18200304992</v>
       </c>
       <c r="C19" t="n">
-        <v>-31104.27695386429</v>
+        <v>-19571.99137719049</v>
       </c>
       <c r="D19" t="n">
-        <v>-1173219.805327375</v>
+        <v>-1231880.795593743</v>
       </c>
       <c r="E19" t="n">
-        <v>837997.6869949438</v>
+        <v>-837997.6869949438</v>
       </c>
       <c r="F19" t="n">
-        <v>7821.465368849167</v>
+        <v>-8212.538637291625</v>
       </c>
       <c r="G19" t="n">
-        <v>10474248.37917783</v>
+        <v>349312.1110317473</v>
       </c>
       <c r="H19" t="n">
-        <v>18047.86601437238</v>
+        <v>9919113.215081397</v>
       </c>
       <c r="I19" t="n">
-        <v>10052487.71961377</v>
+        <v>-18047.86601437238</v>
       </c>
       <c r="J19" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>8111398.265492553</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>2049</v>
       </c>
       <c r="B20" t="n">
-        <v>-67123.12135196599</v>
+        <v>-42236.4150839898</v>
       </c>
       <c r="C20" t="n">
-        <v>-31415.31972340293</v>
+        <v>-19767.7112909624</v>
       </c>
       <c r="D20" t="n">
-        <v>-1199350.866420978</v>
+        <v>-1259318.409742027</v>
       </c>
       <c r="E20" t="n">
-        <v>846377.663864893</v>
+        <v>-846377.663864893</v>
       </c>
       <c r="F20" t="n">
-        <v>7995.672442806519</v>
+        <v>-8395.456064946846</v>
       </c>
       <c r="G20" t="n">
-        <v>10737675.72591416</v>
+        <v>358097.3106241956</v>
       </c>
       <c r="H20" t="n">
-        <v>11664.89173598962</v>
+        <v>10168578.91244069</v>
       </c>
       <c r="I20" t="n">
-        <v>10289833.30157589</v>
+        <v>-11664.89173598962</v>
       </c>
       <c r="J20" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+        <v>8338915.675282082</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>2050</v>
       </c>
       <c r="B21" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C21" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D21" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E21" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F21" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G21" t="n">
-        <v>11007728.27042089</v>
+        <v>367103.4579863939</v>
       </c>
       <c r="H21" t="n">
-        <v>9055.200977258122</v>
+        <v>10424318.67208858</v>
       </c>
       <c r="I21" t="n">
-        <v>10584416.33965671</v>
+        <v>-9055.200977258122</v>
       </c>
       <c r="J21" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>8617129.068246981</v>
+      </c>
+      <c r="K21" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>2051</v>
       </c>
       <c r="B22" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C22" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D22" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E22" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F22" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G22" t="n">
-        <v>11172844.1944772</v>
+        <v>372610.0098561901</v>
       </c>
       <c r="H22" t="n">
-        <v>9191.028990438785</v>
+        <v>10580683.4521699</v>
       </c>
       <c r="I22" t="n">
-        <v>10749668.0917262</v>
+        <v>-9191.028990438785</v>
       </c>
       <c r="J22" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+        <v>8778864.572184922</v>
+      </c>
+      <c r="K22" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>2052</v>
       </c>
       <c r="B23" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C23" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D23" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E23" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F23" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G23" t="n">
-        <v>11340436.85739435</v>
+        <v>378199.1600040328</v>
       </c>
       <c r="H23" t="n">
-        <v>9328.894426413337</v>
+        <v>10739393.70395246</v>
       </c>
       <c r="I23" t="n">
-        <v>10917398.62007932</v>
+        <v>-9328.894426413337</v>
       </c>
       <c r="J23" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+        <v>8943026.108679341</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>2053</v>
       </c>
       <c r="B24" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C24" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D24" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E24" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F24" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G24" t="n">
-        <v>11510543.41025527</v>
+        <v>383872.1474040933</v>
       </c>
       <c r="H24" t="n">
-        <v>9468.827843057972</v>
+        <v>10900484.60951174</v>
       </c>
       <c r="I24" t="n">
-        <v>11087645.10635689</v>
+        <v>-9468.827843057972</v>
       </c>
       <c r="J24" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>9109650.068222037</v>
+      </c>
+      <c r="K24" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>2054</v>
       </c>
       <c r="B25" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C25" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D25" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E25" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F25" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G25" t="n">
-        <v>11683201.56140909</v>
+        <v>389630.2296151544</v>
       </c>
       <c r="H25" t="n">
-        <v>9610.860260343612</v>
+        <v>11063991.87865442</v>
       </c>
       <c r="I25" t="n">
-        <v>11260445.28992799</v>
+        <v>-9610.860260343612</v>
       </c>
       <c r="J25" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
+        <v>9278773.387158496</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>2055</v>
       </c>
       <c r="B26" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C26" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D26" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E26" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F26" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G26" t="n">
-        <v>11858449.58483023</v>
+        <v>395474.6830593822</v>
       </c>
       <c r="H26" t="n">
-        <v>9755.023162820249</v>
+        <v>11229951.75683424</v>
       </c>
       <c r="I26" t="n">
-        <v>11435837.47625161</v>
+        <v>-9755.023162820249</v>
       </c>
       <c r="J26" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
+        <v>9450433.555880068</v>
+      </c>
+      <c r="K26" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>2056</v>
       </c>
       <c r="B27" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C27" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D27" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E27" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F27" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G27" t="n">
-        <v>12036326.32860269</v>
+        <v>401406.8033052727</v>
       </c>
       <c r="H27" t="n">
-        <v>9901.34851203888</v>
+        <v>11398401.03318674</v>
       </c>
       <c r="I27" t="n">
-        <v>11613860.54537328</v>
+        <v>-9901.34851203888</v>
       </c>
       <c r="J27" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+        <v>9624668.627129244</v>
+      </c>
+      <c r="K27" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>2057</v>
       </c>
       <c r="B28" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C28" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D28" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E28" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F28" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G28" t="n">
-        <v>12216871.22353172</v>
+        <v>407427.9053548516</v>
       </c>
       <c r="H28" t="n">
-        <v>10049.86873909837</v>
+        <v>11569377.04868454</v>
       </c>
       <c r="I28" t="n">
-        <v>11794553.96052938</v>
+        <v>-10049.86873909837</v>
       </c>
       <c r="J28" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>9801517.224449562</v>
+      </c>
+      <c r="K28" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>2058</v>
       </c>
       <c r="B29" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C29" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D29" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E29" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F29" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G29" t="n">
-        <v>12400124.2918847</v>
+        <v>413539.3239351743</v>
       </c>
       <c r="H29" t="n">
-        <v>10200.61676948922</v>
+        <v>11742917.70441481</v>
       </c>
       <c r="I29" t="n">
-        <v>11977957.77691275</v>
+        <v>-10200.61676948922</v>
       </c>
       <c r="J29" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>9981018.550729766</v>
+      </c>
+      <c r="K29" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>2059</v>
       </c>
       <c r="B30" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C30" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D30" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E30" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F30" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G30" t="n">
-        <v>12586126.15626298</v>
+        <v>419742.413794202</v>
       </c>
       <c r="H30" t="n">
-        <v>10353.62602060921</v>
+        <v>11919061.46998103</v>
       </c>
       <c r="I30" t="n">
-        <v>12164112.65054214</v>
+        <v>-10353.62602060921</v>
       </c>
       <c r="J30" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+        <v>10163212.39690389</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>2060</v>
       </c>
       <c r="B31" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C31" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D31" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E31" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F31" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G31" t="n">
-        <v>12774918.04860691</v>
+        <v>426038.5500011148</v>
       </c>
       <c r="H31" t="n">
-        <v>10508.93041170093</v>
+        <v>12097847.39203074</v>
       </c>
       <c r="I31" t="n">
-        <v>12353059.84727717</v>
+        <v>-10508.93041170093</v>
       </c>
       <c r="J31" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>10348139.15076942</v>
+      </c>
+      <c r="K31" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>2061</v>
       </c>
       <c r="B32" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C32" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D32" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E32" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F32" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G32" t="n">
-        <v>12966541.81933602</v>
+        <v>432429.1282511313</v>
       </c>
       <c r="H32" t="n">
-        <v>10666.56436882051</v>
+        <v>12279315.10291119</v>
       </c>
       <c r="I32" t="n">
-        <v>12544841.2519634</v>
+        <v>-10666.56436882051</v>
       </c>
       <c r="J32" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>10535839.80594277</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>2062</v>
       </c>
       <c r="B33" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C33" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D33" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E33" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F33" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G33" t="n">
-        <v>13161039.94662605</v>
+        <v>438915.5651748984</v>
       </c>
       <c r="H33" t="n">
-        <v>10826.56283229078</v>
+        <v>12463504.82945487</v>
       </c>
       <c r="I33" t="n">
-        <v>12739499.3777169</v>
+        <v>-10826.56283229078</v>
       </c>
       <c r="J33" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+        <v>10726355.97094675</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>2063</v>
       </c>
       <c r="B34" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C34" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D34" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E34" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F34" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G34" t="n">
-        <v>13358455.54582544</v>
+        <v>445499.2986525219</v>
       </c>
       <c r="H34" t="n">
-        <v>10988.96127657632</v>
+        <v>12650457.40189669</v>
       </c>
       <c r="I34" t="n">
-        <v>12937077.37536057</v>
+        <v>-10988.96127657632</v>
       </c>
       <c r="J34" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>10919729.8784219</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>2064</v>
       </c>
       <c r="B35" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C35" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D35" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E35" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F35" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G35" t="n">
-        <v>13558832.37901282</v>
+        <v>452181.7881323099</v>
       </c>
       <c r="H35" t="n">
-        <v>11153.79569537715</v>
+        <v>12840214.26292515</v>
       </c>
       <c r="I35" t="n">
-        <v>13137619.04296676</v>
+        <v>-11153.79569537715</v>
       </c>
       <c r="J35" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>11116004.39451135</v>
+      </c>
+      <c r="K35" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>2065</v>
       </c>
       <c r="B36" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C36" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D36" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E36" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F36" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G36" t="n">
-        <v>13762214.86469802</v>
+        <v>458964.5149542942</v>
       </c>
       <c r="H36" t="n">
-        <v>11321.10263144132</v>
+        <v>13032817.47686902</v>
       </c>
       <c r="I36" t="n">
-        <v>13341168.83558802</v>
+        <v>-11321.10263144132</v>
       </c>
       <c r="J36" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+        <v>11315223.02834114</v>
+      </c>
+      <c r="K36" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>2066</v>
       </c>
       <c r="B37" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C37" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D37" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E37" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F37" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G37" t="n">
-        <v>13968648.08766848</v>
+        <v>465848.9826786089</v>
       </c>
       <c r="H37" t="n">
-        <v>11490.91916911177</v>
+        <v>13228309.73902205</v>
       </c>
       <c r="I37" t="n">
-        <v>13547771.87509615</v>
+        <v>-11490.91916911177</v>
       </c>
       <c r="J37" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>11517429.94168082</v>
+      </c>
+      <c r="K37" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>2067</v>
       </c>
       <c r="B38" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C38" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D38" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E38" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F38" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G38" t="n">
-        <v>14178177.80898351</v>
+        <v>472836.7174187881</v>
       </c>
       <c r="H38" t="n">
-        <v>11663.28295668571</v>
+        <v>13426734.38510739</v>
       </c>
       <c r="I38" t="n">
-        <v>13757473.96019876</v>
+        <v>-11663.28295668571</v>
       </c>
       <c r="J38" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>11722669.95871876</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>2068</v>
       </c>
       <c r="B39" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C39" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D39" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E39" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F39" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G39" t="n">
-        <v>14390850.47611825</v>
+        <v>479929.2681800699</v>
       </c>
       <c r="H39" t="n">
-        <v>11838.23220144592</v>
+        <v>13628135.40088399</v>
       </c>
       <c r="I39" t="n">
-        <v>13970321.57657826</v>
+        <v>-11838.23220144592</v>
       </c>
       <c r="J39" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>11930988.57601188</v>
+      </c>
+      <c r="K39" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>2069</v>
       </c>
       <c r="B40" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C40" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D40" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E40" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F40" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G40" t="n">
-        <v>14606713.23326004</v>
+        <v>487128.2072027709</v>
       </c>
       <c r="H40" t="n">
-        <v>12015.80568456698</v>
+        <v>13832557.43189726</v>
       </c>
       <c r="I40" t="n">
-        <v>14186361.90720317</v>
+        <v>-12015.80568456698</v>
       </c>
       <c r="J40" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>12142431.97256473</v>
+      </c>
+      <c r="K40" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>2070</v>
       </c>
       <c r="B41" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C41" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D41" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E41" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F41" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G41" t="n">
-        <v>14825813.93175894</v>
+        <v>494435.1303108119</v>
       </c>
       <c r="H41" t="n">
-        <v>12196.04277105283</v>
+        <v>14040045.7933757</v>
       </c>
       <c r="I41" t="n">
-        <v>14405642.84278855</v>
+        <v>-12196.04277105283</v>
       </c>
       <c r="J41" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>12357047.02006472</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>2071</v>
       </c>
       <c r="B42" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C42" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D42" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E42" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F42" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G42" t="n">
-        <v>15048201.14073532</v>
+        <v>501851.6572654743</v>
       </c>
       <c r="H42" t="n">
-        <v>12378.98341222113</v>
+        <v>14250646.48027634</v>
       </c>
       <c r="I42" t="n">
-        <v>14628212.99240609</v>
+        <v>-12378.98341222113</v>
       </c>
       <c r="J42" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>12574881.29327886</v>
+      </c>
+      <c r="K42" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>2072</v>
       </c>
       <c r="B43" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C43" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D43" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E43" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F43" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G43" t="n">
-        <v>15273924.15784636</v>
+        <v>509379.4321244563</v>
       </c>
       <c r="H43" t="n">
-        <v>12564.6681630939</v>
+        <v>14464406.17748049</v>
       </c>
       <c r="I43" t="n">
-        <v>14854121.69426801</v>
+        <v>-12564.6681630939</v>
       </c>
       <c r="J43" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>12795983.08059112</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>2073</v>
       </c>
       <c r="B44" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C44" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D44" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E44" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F44" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G44" t="n">
-        <v>15503033.02021403</v>
+        <v>517020.123606323</v>
       </c>
       <c r="H44" t="n">
-        <v>12753.13818488194</v>
+        <v>14681372.27014269</v>
       </c>
       <c r="I44" t="n">
-        <v>15083419.02665748</v>
+        <v>-12753.13818488194</v>
       </c>
       <c r="J44" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+        <v>13020401.3947134</v>
+      </c>
+      <c r="K44" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>2074</v>
       </c>
       <c r="B45" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C45" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D45" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E45" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F45" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G45" t="n">
-        <v>15735578.51551725</v>
+        <v>524775.4254604178</v>
       </c>
       <c r="H45" t="n">
-        <v>12944.43525740673</v>
+        <v>14901592.85419483</v>
       </c>
       <c r="I45" t="n">
-        <v>15316155.81903322</v>
+        <v>-12944.43525740673</v>
       </c>
       <c r="J45" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>13248185.98354711</v>
+      </c>
+      <c r="K45" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>2075</v>
       </c>
       <c r="B46" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C46" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D46" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E46" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F46" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G46" t="n">
-        <v>15971612.19325001</v>
+        <v>532647.0568423241</v>
       </c>
       <c r="H46" t="n">
-        <v>13138.60178655353</v>
+        <v>15125116.74700775</v>
       </c>
       <c r="I46" t="n">
-        <v>15552383.66329512</v>
+        <v>-13138.60178655353</v>
       </c>
       <c r="J46" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+        <v>13479387.34121278</v>
+      </c>
+      <c r="K46" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2076</v>
       </c>
       <c r="B47" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C47" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D47" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E47" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F47" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G47" t="n">
-        <v>16211186.37614876</v>
+        <v>540636.7626949587</v>
       </c>
       <c r="H47" t="n">
-        <v>13335.68081420895</v>
+        <v>15351993.49821287</v>
       </c>
       <c r="I47" t="n">
-        <v>15792154.92522153</v>
+        <v>-13335.68081420895</v>
       </c>
       <c r="J47" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>13714056.71924289</v>
+      </c>
+      <c r="K47" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>2077</v>
       </c>
       <c r="B48" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C48" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D48" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E48" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F48" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G48" t="n">
-        <v>16454354.17179099</v>
+        <v>548746.314135383</v>
       </c>
       <c r="H48" t="n">
-        <v>13535.71602571404</v>
+        <v>15582273.40068606</v>
       </c>
       <c r="I48" t="n">
-        <v>16035522.75607526</v>
+        <v>-13535.71602571404</v>
       </c>
       <c r="J48" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>13952246.13794499</v>
+      </c>
+      <c r="K48" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>2078</v>
       </c>
       <c r="B49" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C49" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D49" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E49" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F49" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G49" t="n">
-        <v>16701169.48436784</v>
+        <v>556977.5088474138</v>
       </c>
       <c r="H49" t="n">
-        <v>13738.75176725499</v>
+        <v>15816007.50169635</v>
       </c>
       <c r="I49" t="n">
-        <v>16282541.10439366</v>
+        <v>-13738.75176725499</v>
       </c>
       <c r="J49" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>14194008.39792577</v>
+      </c>
+      <c r="K49" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>2079</v>
       </c>
       <c r="B50" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C50" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D50" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E50" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F50" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G50" t="n">
-        <v>16951687.02663336</v>
+        <v>565332.171480125</v>
       </c>
       <c r="H50" t="n">
-        <v>13944.83304337873</v>
+        <v>16053247.6142218</v>
       </c>
       <c r="I50" t="n">
-        <v>16533264.7279353</v>
+        <v>-13944.83304337873</v>
       </c>
       <c r="J50" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>14439397.09180781</v>
+      </c>
+      <c r="K50" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>2080</v>
       </c>
       <c r="B51" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C51" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D51" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E51" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F51" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G51" t="n">
-        <v>17205962.33203286</v>
+        <v>573812.1540523272</v>
       </c>
       <c r="H51" t="n">
-        <v>14154.00553935238</v>
+        <v>16294046.32843512</v>
       </c>
       <c r="I51" t="n">
-        <v>16787749.20583077</v>
+        <v>-14154.00553935238</v>
       </c>
       <c r="J51" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>14688466.61609736</v>
+      </c>
+      <c r="K51" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>2081</v>
       </c>
       <c r="B52" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C52" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D52" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E52" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F52" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G52" t="n">
-        <v>17464051.76701336</v>
+        <v>582419.336363112</v>
       </c>
       <c r="H52" t="n">
-        <v>14366.31562116321</v>
+        <v>16538457.02336165</v>
       </c>
       <c r="I52" t="n">
-        <v>17046050.95089308</v>
+        <v>-14366.31562116321</v>
       </c>
       <c r="J52" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>14941272.18325287</v>
+      </c>
+      <c r="K52" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>2082</v>
       </c>
       <c r="B53" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C53" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D53" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E53" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F53" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G53" t="n">
-        <v>17726012.54351855</v>
+        <v>591155.6264085582</v>
       </c>
       <c r="H53" t="n">
-        <v>14581.81035539371</v>
+        <v>16786533.87871206</v>
       </c>
       <c r="I53" t="n">
-        <v>17308227.2221325</v>
+        <v>-14581.81035539371</v>
       </c>
       <c r="J53" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+        <v>15197869.83391449</v>
+      </c>
+      <c r="K53" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>2083</v>
       </c>
       <c r="B54" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C54" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D54" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E54" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F54" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G54" t="n">
-        <v>17991902.73167132</v>
+        <v>600022.9608046865</v>
       </c>
       <c r="H54" t="n">
-        <v>14800.53751170594</v>
+        <v>17038331.88689274</v>
       </c>
       <c r="I54" t="n">
-        <v>17574336.13744159</v>
+        <v>-14800.53751170594</v>
       </c>
       <c r="J54" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+        <v>15458316.44933499</v>
+      </c>
+      <c r="K54" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>2084</v>
       </c>
       <c r="B55" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C55" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D55" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E55" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F55" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G55" t="n">
-        <v>18261781.2726464</v>
+        <v>609023.3052167566</v>
       </c>
       <c r="H55" t="n">
-        <v>15022.54557277911</v>
+        <v>17293906.86519612</v>
       </c>
       <c r="I55" t="n">
-        <v>17844436.68647774</v>
+        <v>-15022.54557277911</v>
       </c>
       <c r="J55" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>15722669.76398937</v>
+      </c>
+      <c r="K55" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>2085</v>
       </c>
       <c r="B56" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C56" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D56" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E56" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F56" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G56" t="n">
-        <v>18535707.99173609</v>
+        <v>618158.6547950084</v>
       </c>
       <c r="H56" t="n">
-        <v>15247.88375666891</v>
+        <v>17553315.46817407</v>
       </c>
       <c r="I56" t="n">
-        <v>18118588.74375131</v>
+        <v>-15247.88375666891</v>
       </c>
       <c r="J56" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+        <v>15990988.37836167</v>
+      </c>
+      <c r="K56" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>2086</v>
       </c>
       <c r="B57" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C57" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D57" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E57" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F57" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G57" t="n">
-        <v>18813743.61161213</v>
+        <v>627431.0346169333</v>
       </c>
       <c r="H57" t="n">
-        <v>15476.60201432325</v>
+        <v>17816615.20019669</v>
       </c>
       <c r="I57" t="n">
-        <v>18396853.08188501</v>
+        <v>-15476.60201432325</v>
       </c>
       <c r="J57" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>16263331.77194856</v>
+      </c>
+      <c r="K57" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>2087</v>
       </c>
       <c r="B58" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C58" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D58" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E58" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F58" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G58" t="n">
-        <v>19095949.76578632</v>
+        <v>636842.5001361875</v>
       </c>
       <c r="H58" t="n">
-        <v>15708.75104448841</v>
+        <v>18083864.42819963</v>
       </c>
       <c r="I58" t="n">
-        <v>18679291.38508936</v>
+        <v>-15708.75104448841</v>
       </c>
       <c r="J58" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+        <v>16539760.3164406</v>
+      </c>
+      <c r="K58" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>2088</v>
       </c>
       <c r="B59" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C59" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D59" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E59" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F59" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G59" t="n">
-        <v>19382389.0122731</v>
+        <v>646395.1376382299</v>
       </c>
       <c r="H59" t="n">
-        <v>15944.38230861543</v>
+        <v>18355122.39462262</v>
       </c>
       <c r="I59" t="n">
-        <v>18965966.26284027</v>
+        <v>-15944.38230861543</v>
       </c>
       <c r="J59" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+        <v>16820335.2891015</v>
+      </c>
+      <c r="K59" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>2089</v>
       </c>
       <c r="B60" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C60" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D60" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E60" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F60" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G60" t="n">
-        <v>19673124.84745721</v>
+        <v>656091.0647028034</v>
       </c>
       <c r="H60" t="n">
-        <v>16183.54804328192</v>
+        <v>18630449.23054196</v>
       </c>
       <c r="I60" t="n">
-        <v>19256941.26375905</v>
+        <v>-16183.54804328192</v>
       </c>
       <c r="J60" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>17105118.88635075</v>
+      </c>
+      <c r="K60" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>2090</v>
       </c>
       <c r="B61" t="n">
-        <v>-66122.93612743921</v>
+        <v>-41607.06058656595</v>
       </c>
       <c r="C61" t="n">
-        <v>-31729.47292063696</v>
+        <v>-19965.38840387202</v>
       </c>
       <c r="D61" t="n">
-        <v>-1181479.63231481</v>
+        <v>-1240553.61393055</v>
       </c>
       <c r="E61" t="n">
-        <v>854841.440503542</v>
+        <v>-854841.440503542</v>
       </c>
       <c r="F61" t="n">
-        <v>7876.530882098732</v>
+        <v>-8270.357426203671</v>
       </c>
       <c r="G61" t="n">
-        <v>19968221.72016906</v>
+        <v>665932.4306733457</v>
       </c>
       <c r="H61" t="n">
-        <v>16426.30126516091</v>
+        <v>18909905.9690001</v>
       </c>
       <c r="I61" t="n">
-        <v>19552280.88969278</v>
+        <v>-16426.30126516091</v>
       </c>
       <c r="J61" t="n">
-        <v>15893</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>17394174.23755755</v>
+      </c>
+      <c r="K61" t="n">
+        <v>15893</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2531,25 +2716,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-120306938.8888889</v>
+        <v>124920970.7492725</v>
       </c>
       <c r="B2" t="n">
-        <v>277780773.2972983</v>
+        <v>220278081.2339582</v>
       </c>
       <c r="C2" t="n">
-        <v>157473834.4084094</v>
+        <v>95357110.48468563</v>
       </c>
       <c r="D2" t="n">
-        <v>2.308933930684136</v>
+        <v>1.763339493062985</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07168260671794902</v>
+        <v>0.05873943500843115</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05242108307113235</v>
+        <v>0.035115416705185</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
